--- a/src/test/resources/testData/AddAddress.xlsx
+++ b/src/test/resources/testData/AddAddress.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbinbir\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="AddShippingAddress" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Address</t>
   </si>
@@ -66,6 +62,12 @@
   </si>
   <si>
     <t>175 E Houston St</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Lake</t>
   </si>
 </sst>
 </file>
@@ -101,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -386,26 +391,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="19.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -434,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -459,11 +464,29 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>78205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>210</v>
+      </c>
+      <c r="D3" s="1">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>